--- a/CaseStudy3_VegetableFoodWaste/EWU_Dashboard_InputTemplate_Biowaste.xlsx
+++ b/CaseStudy3_VegetableFoodWaste/EWU_Dashboard_InputTemplate_Biowaste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\CaseStudy3_VegetableFoodWaste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532B54B9-952B-4884-BC99-0A72F97659CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9063F9-01A1-4750-BCB0-8B1BD2C6898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="470">
   <si>
     <t>input</t>
   </si>
@@ -2820,6 +2820,12 @@
   </si>
   <si>
     <t>P3/1000</t>
+  </si>
+  <si>
+    <t>based on ecoinvent 3.7.1_cutoff</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.7.1_cutoff</t>
   </si>
 </sst>
 </file>
@@ -7412,8 +7418,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7728,8 +7734,8 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8055,7 +8061,9 @@
       <c r="J12" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
@@ -8080,7 +8088,9 @@
       <c r="J13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
@@ -8105,7 +8115,9 @@
       <c r="J14" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
@@ -8130,7 +8142,9 @@
       <c r="J15" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
@@ -8155,7 +8169,9 @@
         <v>277</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
@@ -8180,7 +8196,9 @@
         <v>277</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
@@ -8205,7 +8223,9 @@
         <v>277</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
@@ -8230,7 +8250,9 @@
         <v>277</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="10" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
